--- a/materials/vihr_29_01_21_project.xlsx
+++ b/materials/vihr_29_01_21_project.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
   <si>
     <t>button</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>void activate()</t>
+  </si>
+  <si>
+    <t>ms5803</t>
   </si>
 </sst>
 </file>
@@ -267,13 +270,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>403860</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -322,13 +325,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -377,13 +380,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -432,13 +435,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -487,13 +490,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -542,13 +545,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -597,13 +600,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -652,13 +655,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -705,15 +708,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -760,15 +763,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -817,14 +820,14 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -836,8 +839,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10241280" y="3261360"/>
-          <a:ext cx="2453640" cy="12700"/>
+          <a:off x="10241280" y="3931228"/>
+          <a:ext cx="3063240" cy="1260763"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -869,7 +872,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="524503" cy="264560"/>
@@ -922,13 +925,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>186690</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -972,7 +975,7 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="681982" cy="264560"/>
@@ -1023,15 +1026,15 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1078,15 +1081,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>499110</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1130,9 +1133,9 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="640303" cy="264560"/>
@@ -1185,13 +1188,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1235,7 +1238,7 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1474186" cy="264560"/>
@@ -1288,13 +1291,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>403860</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1340,7 +1343,7 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="472117" cy="264560"/>
@@ -1677,242 +1680,267 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH110"/>
+  <dimension ref="A1:AM110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="V43" sqref="V43"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AM4" sqref="AM4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:34" ht="23.4">
+    <row r="1" spans="1:39" ht="23.4">
       <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
-      <c r="R2" s="1" t="s">
+    <row r="3" spans="1:39">
+      <c r="AM3" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="R5" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
-      <c r="R3" t="s">
+    <row r="6" spans="1:39">
+      <c r="R6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
-      <c r="R4" t="s">
+    <row r="7" spans="1:39">
+      <c r="R7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
-      <c r="R5" t="s">
+    <row r="8" spans="1:39">
+      <c r="R8" t="s">
         <v>22</v>
       </c>
-      <c r="AB5" s="1" t="s">
+    </row>
+    <row r="9" spans="1:39">
+      <c r="R9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="R10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="R11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="AB16" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
-      <c r="R6" t="s">
+    <row r="17" spans="4:34">
+      <c r="H17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB17" t="s">
         <v>5</v>
       </c>
-      <c r="AB6" t="s">
+    </row>
+    <row r="18" spans="4:34">
+      <c r="H18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="4:34">
+      <c r="H19" t="s">
+        <v>10</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH19" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="4:34">
+      <c r="H20" t="s">
+        <v>11</v>
+      </c>
+      <c r="O20" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="4:34">
+      <c r="H21" t="s">
+        <v>12</v>
+      </c>
+      <c r="O21" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="4:34">
+      <c r="H22" t="s">
+        <v>13</v>
+      </c>
+      <c r="O22" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:34">
-      <c r="R7" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34">
-      <c r="R8" t="s">
-        <v>24</v>
-      </c>
-      <c r="AH8" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34">
-      <c r="AH9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34">
-      <c r="AH10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34">
-      <c r="AH11" t="s">
+      <c r="AH22" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
-      <c r="AH12" t="s">
+    <row r="23" spans="4:34">
+      <c r="H23" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
-      <c r="H13" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34">
-      <c r="H14" s="2" t="s">
+    <row r="24" spans="4:34">
+      <c r="H24" t="s">
+        <v>18</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="4:34">
+      <c r="H25" t="s">
+        <v>16</v>
+      </c>
+      <c r="W25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="4:34">
+      <c r="W26" t="s">
         <v>14</v>
       </c>
-      <c r="V14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH14" t="s">
+      <c r="AH26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="4:34">
+      <c r="W27" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="4:34">
+      <c r="W28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="4:34">
+      <c r="W29" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:34">
-      <c r="H15" t="s">
-        <v>10</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V15" t="s">
+      <c r="AF29" s="1"/>
+    </row>
+    <row r="30" spans="4:34">
+      <c r="W30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="4:34">
+      <c r="D31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="4:34">
+      <c r="D32" t="s">
         <v>14</v>
       </c>
-      <c r="AH15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34">
-      <c r="H16" t="s">
-        <v>11</v>
-      </c>
-      <c r="O16" t="s">
+      <c r="W32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="4:24">
+      <c r="D33" t="s">
+        <v>30</v>
+      </c>
+      <c r="P33" s="2"/>
+    </row>
+    <row r="34" spans="4:24">
+      <c r="D34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="4:24">
+      <c r="D35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="4:24">
+      <c r="D36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="4:24">
+      <c r="X38" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="4:24">
+      <c r="X39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="4:24">
+      <c r="X40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="4:24">
+      <c r="L45" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="4:24">
+      <c r="L46" t="s">
         <v>14</v>
       </c>
-      <c r="V16" t="s">
-        <v>53</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="4:32">
-      <c r="H17" t="s">
-        <v>12</v>
-      </c>
-      <c r="O17" t="s">
-        <v>26</v>
-      </c>
-      <c r="V17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="4:32">
-      <c r="H18" t="s">
-        <v>13</v>
-      </c>
-      <c r="O18" t="s">
+    </row>
+    <row r="47" spans="4:24">
+      <c r="L47" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="4:24">
+      <c r="L48" t="s">
         <v>5</v>
       </c>
-      <c r="V18" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF18" s="1"/>
-    </row>
-    <row r="19" spans="4:32">
-      <c r="H19" t="s">
-        <v>5</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="V19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="4:32">
-      <c r="H20" t="s">
-        <v>18</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="V20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="4:32">
-      <c r="H21" t="s">
-        <v>16</v>
-      </c>
-      <c r="V21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="4:32">
-      <c r="D27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="R27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W27" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="4:32">
-      <c r="D28" t="s">
-        <v>14</v>
-      </c>
-      <c r="R28" t="s">
-        <v>14</v>
-      </c>
-      <c r="W28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="4:32">
-      <c r="D29" t="s">
-        <v>30</v>
-      </c>
-      <c r="P29" s="2"/>
-      <c r="R29" t="s">
-        <v>42</v>
-      </c>
-      <c r="W29" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="4:32">
-      <c r="D30" t="s">
-        <v>15</v>
-      </c>
-      <c r="R30" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="4:32">
-      <c r="D31" t="s">
-        <v>32</v>
-      </c>
-      <c r="R31" t="s">
+    </row>
+    <row r="49" spans="12:12">
+      <c r="L49" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="4:32">
-      <c r="D32" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="85" spans="2:12">
